--- a/data/trans_dic/P6902-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6902-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,65%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,3%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,35%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>26,41; 55,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>31,45; 91,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>12,73; 62,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>27,49; 70,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>27,62; 88,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>32,84; 91,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>53,21; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>29,57; 54,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>37,94; 81,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>28,26; 65,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>46,51; 95,3</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,37%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,86%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,97%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,5%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>34,5; 53,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>42,09; 64,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>26,09; 47,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>57,93; 86,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>45,48; 67,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>41,89; 67,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>44,0; 73,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>58,37; 83,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>41,48; 55,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>45,38; 62,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>35,89; 53,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>61,32; 81,6</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,57%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,73%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,74%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,43%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>36,59; 55,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>37,57; 57,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>29,02; 48,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>44,63; 64,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>38,1; 61,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>49,88; 72,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>51,65; 72,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>51,44; 69,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>40,5; 54,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>45,69; 61,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>40,29; 54,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>50,24; 64,23</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,34%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,66%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,58%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>37,01; 56,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>28,44; 49,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>39,1; 61,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>54,15; 72,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>34,24; 66,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>36,05; 68,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>42,38; 68,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>47,34; 71,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>39,19; 56,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>33,79; 52,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>43,2; 61,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>53,5; 69,83</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,05%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,68%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,23%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,24%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>17,83; 45,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>31,22; 60,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>39,09; 68,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>51,97; 74,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>14,43; 64,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>41,37; 82,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>42,42; 82,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>56,88; 74,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>20,68; 44,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>39,31; 64,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>45,67; 69,5</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>57,95; 72,44</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,12 +1391,12 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,88%</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 88,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>25,27; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>17,63; 76,81</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,87%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,39%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,13%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,7%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>38,46; 48,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>41,03; 52,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>38,13; 49,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>56,43; 67,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>44,12; 57,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>49,47; 63,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>53,42; 66,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>57,3; 70,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>41,73; 49,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>47,09; 55,93</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>45,54; 54,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>58,81; 67,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6902-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>54,78%</t>
+          <t>50,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>85,82%</t>
+          <t>84,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>77,35%</t>
+          <t>75,11%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 96,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53,21; 100,0</t>
+          <t>53,73; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>46,51; 95,3</t>
+          <t>41,06; 94,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>73,65%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>70,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>72,5%</t>
+          <t>72,71%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57,93; 86,17</t>
+          <t>58,47; 86,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,37; 83,54</t>
+          <t>57,51; 82,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>61,32; 81,6</t>
+          <t>61,2; 81,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>54,78%</t>
+          <t>54,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>60,66%</t>
+          <t>60,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>57,43%</t>
+          <t>56,86%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>44,63; 64,79</t>
+          <t>43,86; 64,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,44; 69,31</t>
+          <t>51,31; 68,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>50,24; 64,23</t>
+          <t>49,63; 63,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>63,56%</t>
+          <t>62,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,8%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>62,58%</t>
+          <t>56,71%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>54,15; 72,6</t>
+          <t>53,13; 71,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,34; 71,53</t>
+          <t>26,96; 70,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,5; 69,83</t>
+          <t>34,86; 67,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>64,08%</t>
+          <t>63,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>66,61%</t>
+          <t>66,42%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>65,24%</t>
+          <t>64,77%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51,97; 74,9</t>
+          <t>51,16; 73,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56,88; 74,77</t>
+          <t>56,58; 74,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>57,95; 72,44</t>
+          <t>57,58; 72,08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>25,39%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>65,7%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>25,91%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>65,6%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>45,88%</t>
+          <t>45,51%</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 88,29</t>
+          <t>0,0; 86,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,27; 100,0</t>
+          <t>24,47; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,63; 76,81</t>
+          <t>17,27; 76,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>62,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>60,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>64,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>51,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>63,7%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>43,42%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>46,87%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>43,43%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>61,84%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>51,34%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>57,54%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>60,58%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>60,51%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>45,94%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>51,13%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>49,98%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>61,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>38,46; 48,43</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>41,03; 52,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>38,13; 49,1</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>56,43; 67,18</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>55,75; 66,69</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>44,12; 57,5</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>49,47; 63,88</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>53,42; 66,65</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>57,3; 70,0</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>43,77; 68,61</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>41,73; 49,52</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>47,09; 55,93</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>45,54; 54,18</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>58,81; 67,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>50,28; 65,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P6902-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,41; 55,12</t>
+          <t>25,11; 54,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,45; 91,02</t>
+          <t>31,79; 91,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,73; 62,83</t>
+          <t>12,61; 60,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 96,75</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,49; 70,92</t>
+          <t>28,16; 70,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,62; 88,41</t>
+          <t>28,64; 89,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,84; 91,44</t>
+          <t>31,93; 91,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53,73; 100,0</t>
+          <t>54,04; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,57; 54,15</t>
+          <t>30,83; 54,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>37,94; 81,05</t>
+          <t>38,15; 83,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,26; 65,58</t>
+          <t>29,06; 65,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>41,06; 94,77</t>
+          <t>39,25; 94,16</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,5; 53,28</t>
+          <t>35,87; 52,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,09; 64,26</t>
+          <t>41,46; 64,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,09; 47,29</t>
+          <t>25,9; 47,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58,47; 86,66</t>
+          <t>56,62; 87,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,48; 67,65</t>
+          <t>44,56; 68,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,89; 67,48</t>
+          <t>41,56; 66,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,0; 73,2</t>
+          <t>46,24; 73,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>57,51; 82,74</t>
+          <t>56,16; 82,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>41,48; 55,24</t>
+          <t>41,89; 55,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>45,38; 62,06</t>
+          <t>45,66; 62,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,89; 53,78</t>
+          <t>36,89; 53,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>61,2; 81,71</t>
+          <t>60,68; 81,25</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,59; 55,23</t>
+          <t>36,31; 54,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,57; 57,44</t>
+          <t>38,02; 58,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,02; 48,45</t>
+          <t>29,43; 48,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>43,86; 64,1</t>
+          <t>43,52; 64,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,1; 61,22</t>
+          <t>38,78; 62,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,88; 72,94</t>
+          <t>49,9; 72,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,65; 72,69</t>
+          <t>50,18; 72,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,31; 68,92</t>
+          <t>50,65; 69,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,5; 54,73</t>
+          <t>40,88; 54,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,69; 61,3</t>
+          <t>45,32; 61,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,29; 54,84</t>
+          <t>40,7; 55,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>49,63; 63,6</t>
+          <t>49,53; 64,58</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,01; 56,52</t>
+          <t>36,83; 55,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,44; 49,71</t>
+          <t>28,22; 49,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,1; 61,56</t>
+          <t>40,23; 61,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,13; 71,77</t>
+          <t>51,95; 70,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,24; 66,77</t>
+          <t>32,49; 65,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,05; 68,18</t>
+          <t>33,14; 66,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,38; 68,71</t>
+          <t>42,56; 70,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,96; 70,14</t>
+          <t>26,06; 69,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,19; 56,74</t>
+          <t>38,54; 55,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,79; 52,11</t>
+          <t>33,86; 51,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43,2; 61,48</t>
+          <t>44,26; 61,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,86; 67,18</t>
+          <t>38,5; 67,51</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,83; 45,34</t>
+          <t>18,88; 46,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,22; 60,85</t>
+          <t>31,36; 60,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,09; 68,81</t>
+          <t>39,1; 69,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51,16; 73,98</t>
+          <t>50,2; 74,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,43; 64,66</t>
+          <t>14,2; 62,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,37; 82,51</t>
+          <t>39,98; 82,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,42; 82,29</t>
+          <t>42,47; 81,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56,58; 74,48</t>
+          <t>57,72; 75,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,68; 44,79</t>
+          <t>19,58; 43,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>39,31; 64,39</t>
+          <t>39,61; 64,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45,67; 69,5</t>
+          <t>46,97; 69,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>57,58; 72,08</t>
+          <t>56,64; 71,88</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,47; 100,0</t>
+          <t>19,19; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,27; 76,46</t>
+          <t>17,97; 77,33</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>38,46; 48,43</t>
+          <t>38,71; 48,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,03; 52,06</t>
+          <t>40,96; 52,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,13; 49,1</t>
+          <t>37,8; 48,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>55,75; 66,69</t>
+          <t>56,4; 67,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>44,12; 57,5</t>
+          <t>45,02; 58,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,47; 63,88</t>
+          <t>50,04; 64,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>53,42; 66,65</t>
+          <t>53,61; 67,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,77; 68,61</t>
+          <t>42,3; 68,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>41,73; 49,52</t>
+          <t>42,18; 49,68</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>47,09; 55,93</t>
+          <t>46,69; 55,53</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>45,54; 54,18</t>
+          <t>45,38; 54,22</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>50,28; 65,88</t>
+          <t>51,16; 66,32</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que se siente nervioso y estresado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18047</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6982</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5846</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2994</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9456</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5919</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7698</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13030</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27503</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12901</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13544</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11595; 24986</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3283; 9459</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2163; 10374</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5989</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5592; 13988</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2880; 8989</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3717; 10638</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8292; 15344</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20358; 35999</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7776; 16961</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8368; 18869</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8373; 20087</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>62296</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>45888</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29655</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43875</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>44884</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>36735</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27839</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>35394</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>107180</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>82624</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>57494</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>79269</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>51034; 75156</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35773; 55511</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21128; 38348</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33447; 51480</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>35326; 54060</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27890; 44464</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>21407; 34251</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>28052; 41063</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>92821; 122321</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>70045; 96511</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>47166; 68432</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>66154; 88575</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>58315</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46375</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>43626</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>51614</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35266</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>44690</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>44490</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45666</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>93580</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>91065</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>88117</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>97280</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>45760; 68817</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37208; 56829</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>33293; 54616</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41573; 61749</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27165; 43701</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>36241; 52320</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35854; 51895</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38267; 52225</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>80159; 107394</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>77270; 105088</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>75123; 101895</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>84746; 110482</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>51740</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>34053</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>46301</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>67977</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18391</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>21224</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>31394</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>81449</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>70131</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>55277</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>77695</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>149426</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>40925; 62215</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25056; 43642</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>36785; 56607</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>56394; 76617</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12034; 24361</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13735; 27383</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>23880; 39550</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>40377; 107101</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>57090; 82797</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>44099; 66843</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>65303; 90194</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>101449; 177887</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13841</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19073</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>24687</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>42764</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15617</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19613</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36869</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>18863</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>34690</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>44300</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>79633</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8664; 21411</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13121; 25170</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17537; 31387</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>33854; 49969</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1975; 8644</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9828; 20337</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13081; 24994</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>32041; 41741</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11704; 26072</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>26310; 43063</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>35530; 52810</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>69639; 88372</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2656</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>810; 1880</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2542</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>559; 2914</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>810; 1880</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>1049; 4513</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>188; 821</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>188; 821</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>205061</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>152372</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>151995</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>209966</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>113018</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>124186</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>131034</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>214322</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>318079</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>276558</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>283029</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>424288</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>182842; 226766</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>133156; 170842</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>132290; 170699</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>191466; 227618</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>99095; 129325</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>108010; 138217</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>115947; 145027</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>149821; 243927</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>292085; 343979</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>252559; 300396</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>256966; 307060</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>354902; 460070</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>